--- a/TEST_INSTANCE/15M_15N.xlsx
+++ b/TEST_INSTANCE/15M_15N.xlsx
@@ -480,37 +480,37 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C2" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
+          <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[2, 1, 9, 5, 7, 8, 8, 9, 1, 7, 1, 1, 9, 4, 10, 10, 3, 10, 6, 1]</t>
+          <t>[6, 9, 9, 7, 4, 4, 10, 6, 8, 6, 5, 10, 2, 2, 5]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>[[0.5117309579443572, 0.43980661126181886, 0.7334229672211683, 0.7137421044395955, 0.20571023732765664, 0.8733161652114025, 0.509800774156011, 0.8269070071520153, 0.7477091444659569, 0.30966335951180335, 0.7681063743956913, 0.6938839002890949, 0.8783076257984643, 0.40752784369149686, 0.4551438313735374, 0.7379346984651294, 0.5235339493370472, 0.620782980358193, 0.8160908134246843, 0.2169920790742641], [0.3777341302060401, 0.4456719033723715, 0.39844928938169233, 0.4490161979265863, 0.3499063862720973, 0.37220092162271157, 0.3639981392624712, 0.3588168213079693, 0.7867076769497325, 0.5568946610446371, 0.3922067372189199, 0.827187742698211, 0.48497521601812404, 0.6227835492061831, 0.7820928801462663, 0.6179442394976532, 0.5394915208916313, 0.5695338594829475, 0.40205325745784126, 0.6837971970595443], [0.504212845246937, 0.6751003493046424, 0.5457819682174192, 0.8751817897956169, 0.5017127339625111, 0.3832748034097737, 0.8816790675442965, 0.7389421762123063, 0.23520212519093786, 0.8929168989121834, 0.7456221556002602, 0.5126481208853003, 0.6395244018160963, 0.803990108388184, 0.8392660300052186, 0.3230059428171433, 0.5021302837299464, 0.6648848769702053, 0.3152331957871289, 0.6863927919116857], [0.8377254797961131, 0.7749742395981236, 0.4007767689539474, 0.23712278508989837, 0.6008299708445557, 0.6743979828054727, 0.7024895778221909, 0.5501604625301811, 0.3727232509224911, 0.3432240211028068, 0.7585262954382068, 0.37303809115127584, 0.8136556537662736, 0.8709400878595817, 0.5157431038121423, 0.8977442539075948, 0.5595554511412085, 0.8735178437991209, 0.6957819284022485, 0.6275241785235632], [0.8983179851434016, 0.710279649058831, 0.2658352041273247, 0.3618631691499995, 0.7970011192367603, 0.34770798817319004, 0.5311812030094271, 0.5477833288104768, 0.5965325250299668, 0.8578022980707958, 0.5726553955450007, 0.7240293160271727, 0.20492526210192363, 0.8397624483422126, 0.7410743551734966, 0.621885557524869, 0.6501713465155838, 0.32989999459925157, 0.5828869931913969, 0.5172454361375317], [0.27007681412762213, 0.8303650062383756, 0.7337877220400739, 0.8932494950550094, 0.5985571387719634, 0.8633684287439378, 0.5462512732915068, 0.770175927423167, 0.28669139847392866, 0.6820065004608538, 0.5159525302548413, 0.8943826543846003, 0.36158314260932156, 0.8706370390247851, 0.3641283578254775, 0.39386585965449994, 0.35556661567726666, 0.5232390460652215, 0.8609189045511119, 0.8747637839100735], [0.21147617618370623, 0.8305878409151306, 0.3028464715012194, 0.362113309665177, 0.7790497693969427, 0.2685594313387175, 0.3310416947126027, 0.5159444304973928, 0.8092675193110175, 0.6170795909964029, 0.21484920069497224, 0.4687282097037837, 0.2890729603130236, 0.868457143575885, 0.31404320615047066, 0.2173412548338911, 0.5428989720239353, 0.53190370807245, 0.5673625490282805, 0.7636210311080371], [0.4975126733736251, 0.7781771397587465, 0.2990520567644789, 0.42885484194037193, 0.7499304550250185, 0.8115807217863609, 0.22151718156639325, 0.5923610289036549, 0.8029033042190672, 0.5845543964319788, 0.5011383956471807, 0.4497764008348628, 0.6457900204630859, 0.6344119638598169, 0.6896579399798136, 0.41235213747316274, 0.42768529671048044, 0.4573187350979464, 0.5072021060412617, 0.43830288105370874], [0.8221909768405202, 0.2677531996287718, 0.22902362871353987, 0.547906903800628, 0.4174963010669284, 0.798165440762298, 0.23474251515874384, 0.38771961316068926, 0.3055183754525855, 0.4961858346407023, 0.6884482876571962, 0.7095352763103588, 0.5959575283472427, 0.554473132868734, 0.5400126537535384, 0.5186640799022537, 0.49925446096540305, 0.5770470999504411, 0.7619174856091917, 0.47402944323005586], [0.317185253976225, 0.22735461960463896, 0.3779474743098188, 0.6710903383129952, 0.6856428836079149, 0.8898044828094047, 0.8788219950167722, 0.8233479408977662, 0.5624655751448355, 0.49146175654146057, 0.6607459711122413, 0.8720027175585034, 0.6548634284325094, 0.2456463385976572, 0.792052762066195, 0.8683073697972978, 0.8077881897673338, 0.6579423093074586, 0.5368308814463987, 0.7478040038722118], [0.5783820022858062, 0.41930608293527893, 0.720810232777936, 0.5070891300005348, 0.44751722171990116, 0.8217788553449856, 0.2988064337882704, 0.8060348259932244, 0.3902660120980943, 0.8847568303714062, 0.8377518496424146, 0.3860865031839735, 0.825574795211331, 0.6074230924099462, 0.8732462618254602, 0.38639756692267774, 0.899777237196874, 0.2949789411284587, 0.34130438297936655, 0.33223443946463316], [0.7591438886415802, 0.5709840883962747, 0.865072553028116, 0.4573069834248596, 0.5799559443786633, 0.41311642805047616, 0.6130760377046949, 0.31035769369693084, 0.47968698059485404, 0.23092614544219667, 0.8696661454757575, 0.6615465526173298, 0.21670091407518555, 0.44698661986659816, 0.25052895530697794, 0.22167432843746057, 0.4696653585227692, 0.35619813651230303, 0.3061454461789752, 0.47328589968711715], [0.6494728501079546, 0.4597223178968014, 0.5907712936392829, 0.21091850777131915, 0.3251254130826032, 0.3723334945490973, 0.2393212476947844, 0.5433095852445928, 0.32078378104976657, 0.23604485813542667, 0.6178123149515018, 0.8699965632927364, 0.4724576041589119, 0.2592646573519123, 0.4915794354120548, 0.26182248017792414, 0.8797709996172574, 0.6758749788104179, 0.7950896110758554, 0.8777192804336154], [0.4512827427589213, 0.6399209804221049, 0.31042016440521714, 0.6550860800587606, 0.5514928984062454, 0.7871248737401377, 0.5203090235306788, 0.5866021151650154, 0.2939298439788474, 0.27846630531490857, 0.5497097820248823, 0.8300210304110409, 0.49230913705104956, 0.31180345448402974, 0.517671236093549, 0.23322107068750283, 0.25542898811711445, 0.7299498564136913, 0.6971588890143663, 0.5725864131705389], [0.4762549931021296, 0.5510402913268968, 0.23933168845510072, 0.4261361013667361, 0.48025188321165985, 0.20493703418266987, 0.41026916798043994, 0.8701070194145086, 0.8575430919039662, 0.8914265466684275, 0.42610371242889333, 0.7185109716807458, 0.4158888245558261, 0.5034937773271762, 0.4819893875667027, 0.4227446825125353, 0.5556809505858749, 0.32453684916290815, 0.8635439890788545, 0.5387227135871755], [0.6617602865186122, 0.3781400872690325, 0.758575545636117, 0.868446136633485, 0.6445215728944567, 0.5968947076016633, 0.48622576532103157, 0.6800095245254445, 0.28607183582678736, 0.6025381835778232, 0.24744654613341494, 0.3320036316758538, 0.894021006396893, 0.6273043961555334, 0.6462774151492188, 0.38196231816556553, 0.35670419746342563, 0.6238289581593268, 0.6126899874178195, 0.5294401217524537], [0.2827556436120735, 0.5209763243539245, 0.6655634143413325, 0.6895753859217528, 0.8093095570300013, 0.7543020670545859, 0.6228219767208072, 0.6522333125767139, 0.6552638166408269, 0.7366980157887406, 0.8654139715480649, 0.6268994744867101, 0.8460712604439724, 0.41834679819927456, 0.3350571253982455, 0.27630523166265597, 0.6176649261086626, 0.6891817795363155, 0.7527871447228114, 0.4720059032706861], [0.42767837290181354, 0.36011919218413607, 0.6019762843096728, 0.2931607460614009, 0.8726462062503944, 0.82287440312358, 0.863039184160673, 0.7674751313369983, 0.22694128883165846, 0.5126769831248092, 0.27513980308124836, 0.7686833731711078, 0.7041833520428797, 0.5544865942293913, 0.561599879017022, 0.8963256497269858, 0.8517916591067156, 0.26326828852497897, 0.26757792799249597, 0.514811654607672], [0.4105737440724618, 0.7263066645524803, 0.4505042827932021, 0.885566545283778, 0.3725106981968065, 0.6839225628231962, 0.24995557285852138, 0.6198959018132343, 0.6191824364622811, 0.3880146574636561, 0.6860720445006308, 0.6069598964406354, 0.36457801816537444, 0.2998042356346579, 0.4780925299285202, 0.6216056893443219, 0.20039472783003665, 0.3668444321479525, 0.8955377535983398, 0.3696436002223335], [0.6990603651983365, 0.8430099641445505, 0.4983999880577885, 0.6511724702918344, 0.6066729334905965, 0.5012131025634268, 0.5281517119174093, 0.4327256290907947, 0.7775456138319756, 0.47983717097964523, 0.49620175321314575, 0.38755971893130386, 0.21454102608340758, 0.5707197177822336, 0.8979201822941183, 0.7164386839900305, 0.6100101765641248, 0.842067054569531, 0.7110739371009052, 0.6453294477523374]]</t>
+          <t>[[0.4862517880887812, 0.8496405114640797, 0.24071579694591055, 0.7138201109049289, 0.7785664355442155, 0.47397483859779405, 0.4868369339627791, 0.5250065504935428, 0.40587287617270784, 0.7475855930158615, 0.27292153921963014, 0.43260937181106807, 0.8084319882435758, 0.35742851345800664, 0.6845143981140684], [0.7429128913499625, 0.35354482657826475, 0.5287666212922129, 0.8073753631865159, 0.7223270334407887, 0.4417998429432134, 0.534878584916131, 0.5956396454698353, 0.5168981670324193, 0.599087456103361, 0.30771759713892083, 0.4997903851286117, 0.5313195474518232, 0.3593616787382926, 0.7471966704188917], [0.868184702212119, 0.6357504912367086, 0.6476078165208788, 0.24144726986875753, 0.7411215833363878, 0.5224346619017332, 0.871086474808124, 0.8611690114006636, 0.7620631770738286, 0.8521477981999963, 0.5917785527342025, 0.3714071101781754, 0.7926495668206275, 0.8308956082888459, 0.8634819931174966], [0.7169305846578244, 0.5951204443055556, 0.6248731484288805, 0.42003270699580875, 0.5978351598831254, 0.6451363885534267, 0.45307569874453585, 0.3958027440110323, 0.595100420770069, 0.3414930985312961, 0.6000952891767818, 0.7572647571708528, 0.3825579797780507, 0.7743459356686144, 0.8739852716067253], [0.5177617419565309, 0.6872571064666276, 0.8248188489606838, 0.6569572948898128, 0.6002795960852475, 0.25821392465894677, 0.8886110527625048, 0.46286907461757265, 0.3734766438514444, 0.23294662319214526, 0.46492839806193464, 0.8572153056799141, 0.5449699904732065, 0.8990007675087406, 0.7892194119496676], [0.39886560399593296, 0.24309172787201153, 0.46684716077343874, 0.5982627062930824, 0.25001943286679246, 0.8625306082055879, 0.37580920669105494, 0.3342478642775629, 0.5938150558609963, 0.24913125204810035, 0.22743356130494513, 0.5449964828267028, 0.3249072791148794, 0.8848017432734427, 0.5861729119511725], [0.6805491342072514, 0.7020980984499321, 0.8624595414964571, 0.4463137101465552, 0.6030630004404203, 0.23487618545127992, 0.3408095377850875, 0.20980712099339366, 0.3214601076004506, 0.6096624277810465, 0.3464632053835495, 0.517298974001994, 0.5583954755592582, 0.29625354882136257, 0.32608996806055746], [0.4728600775852606, 0.6358855778069432, 0.5180687077095132, 0.646722557112554, 0.5679268777043285, 0.4102402005293091, 0.6955834136699972, 0.7493584784337524, 0.37382526685561906, 0.86763635728291, 0.48486129869734373, 0.22049808670150375, 0.7568742023457462, 0.598153165036045, 0.43149148699863304], [0.8415488359840024, 0.7611498232592546, 0.714250113607072, 0.5945121328146057, 0.4492071970313193, 0.8863232660915308, 0.7623584028687698, 0.26429537679855286, 0.6478293776505621, 0.6354909730464007, 0.5402339537408891, 0.6734033088100815, 0.4590143250835552, 0.7074787466204082, 0.21958107681303987], [0.7749052038162385, 0.8321844627591133, 0.403970650063784, 0.7625675220475541, 0.5283597514948325, 0.8573539288384515, 0.3088884651110601, 0.2827013116018642, 0.2939884446957759, 0.35009926076311515, 0.5574778836567487, 0.8700750233409253, 0.38914671010143026, 0.6044595644677666, 0.7591364221268835], [0.8990262922202419, 0.5023004831508844, 0.47066977544631283, 0.7106879935393011, 0.5946999938225835, 0.8472433379150881, 0.7103316428427846, 0.796687520372791, 0.384146030249926, 0.3951202000404992, 0.24210928884607388, 0.23440340774487878, 0.6785610886903292, 0.6079440480897709, 0.8840122219071085], [0.8191974829443638, 0.2435376408164713, 0.5763707475859805, 0.6418988079370902, 0.3176759495773731, 0.5203762522400646, 0.604543141993351, 0.6516909649003471, 0.21398424089893206, 0.5069950172467845, 0.5027809901037023, 0.24104766057161664, 0.5483840411855512, 0.2306970157775455, 0.521251586462671], [0.7952464868609679, 0.5430330797233687, 0.6365482869333607, 0.5405049714841466, 0.779471651691638, 0.2932862028916163, 0.6136536045971942, 0.5601669065756683, 0.8736147560228635, 0.6249017003069299, 0.3498987121886148, 0.20997383108862505, 0.8786474278723018, 0.7665886605108052, 0.4234524804979436], [0.5147297284106354, 0.3287439769898379, 0.7760378194876727, 0.5051878375465381, 0.5164992358203565, 0.6493025637002183, 0.24628810892688774, 0.4074816702093297, 0.6549766434797877, 0.6440538702073246, 0.5214276787790295, 0.8493380687950891, 0.293358946416432, 0.8533201385853084, 0.3058876989510765], [0.613165427140917, 0.3622863077985293, 0.30327881235326726, 0.5067952286809332, 0.7321806804878352, 0.6063518143462496, 0.7211733214881013, 0.6741119583159045, 0.4878950157661339, 0.3657853559544698, 0.6669938931040323, 0.4640937351995842, 0.7478037281950654, 0.5111762207312813, 0.6506290624848536]]</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>[(0, 5), (2, 7), (1, 6), (3, 8), (0, 5), (0, 5), (2, 7), (1, 6), (3, 8), (0, 5), (0, 5), (2, 7), (1, 6), (3, 8), (0, 5), (0, 5), (2, 7), (1, 6), (3, 8), (0, 5)]</t>
+          <t>[(0, 5), (2, 7), (1, 6), (3, 8), (0, 5), (0, 5), (2, 7), (1, 6), (3, 8), (0, 5), (0, 5), (2, 7), (1, 6), (3, 8), (0, 5)]</t>
         </is>
       </c>
     </row>
